--- a/results/DecisionTreeClassifier.xlsx
+++ b/results/DecisionTreeClassifier.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>Best Estimator</t>
+  </si>
+  <si>
+    <t>Best Score</t>
+  </si>
+  <si>
+    <t>Best Params</t>
+  </si>
+  <si>
+    <t>Validation Score</t>
+  </si>
+  <si>
+    <t>Y Val (Validation)</t>
+  </si>
+  <si>
+    <t>Y Pred (Validation)</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>CV Train Mean</t>
+  </si>
+  <si>
+    <t>CV Train STD</t>
+  </si>
+  <si>
+    <t>CV Test Mean</t>
+  </si>
+  <si>
+    <t>CV Test STD</t>
+  </si>
+  <si>
+    <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced',
+                                        random_state=42))])</t>
+  </si>
+  <si>
+    <t>{'selector': None, 'scaler': StandardScaler(), 'model__class_weight': 'balanced'}</t>
+  </si>
+  <si>
+    <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
+  </si>
+  <si>
+    <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
+  </si>
+  <si>
+    <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+  </si>
+  <si>
+    <t>[0 0 0 0 1 0 1 1 1 1 1 1]</t>
+  </si>
+  <si>
+    <t>[1 0 1 1 0 0 1 1 0 0 0 1]</t>
+  </si>
+  <si>
+    <t>[1 1 1 1 0 1 0 1 1 1 1 0]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +114,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,215 +430,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Best Estimator</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Best Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Best Params</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Validation Score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Y Val (Validation)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y Pred (Validation)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
-        </is>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.579946921276204</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>0.5714285714285714</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 1 0 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.579946921276204</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.1185102497965201</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>0.5312293439249961</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>0.7692307692307692</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 0 0 1 1 0 0 0 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.5312293439249961</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.1032040780297864</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>0.622977022977023</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>42</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.6217204092204092</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.05290264388541155</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/DecisionTreeClassifier.xlsx
+++ b/results/DecisionTreeClassifier.xlsx
@@ -1,105 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
-  <si>
-    <t>Best Estimator</t>
-  </si>
-  <si>
-    <t>Best Score</t>
-  </si>
-  <si>
-    <t>Best Params</t>
-  </si>
-  <si>
-    <t>Validation Score</t>
-  </si>
-  <si>
-    <t>Y Val (Validation)</t>
-  </si>
-  <si>
-    <t>Y Pred (Validation)</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>CV Train Mean</t>
-  </si>
-  <si>
-    <t>CV Train STD</t>
-  </si>
-  <si>
-    <t>CV Test Mean</t>
-  </si>
-  <si>
-    <t>CV Test STD</t>
-  </si>
-  <si>
-    <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        random_state=42))])</t>
-  </si>
-  <si>
-    <t>{'selector': None, 'scaler': StandardScaler(), 'model__class_weight': 'balanced'}</t>
-  </si>
-  <si>
-    <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-  </si>
-  <si>
-    <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-  </si>
-  <si>
-    <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
-  </si>
-  <si>
-    <t>[0 0 0 0 1 0 1 1 1 1 1 1]</t>
-  </si>
-  <si>
-    <t>[1 0 1 1 0 0 1 1 0 0 0 1]</t>
-  </si>
-  <si>
-    <t>[1 1 1 1 0 1 0 1 1 1 1 0]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,154 +420,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Best Estimator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Best Score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Params</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Y Val (Validation)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Y Pred (Validation)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train STD</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test STD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', 'passthrough'),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced',
+                                        criterion='entropy', max_depth=10,
+                                        max_features='log2', min_samples_leaf=9,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5904761904761905</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'scaler': RobustScaler(), 'model__min_samples_split': 2, 'model__min_samples_leaf': 9, 'model__max_features': 'log2', 'model__max_depth': 10, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H2" t="n">
+        <v>0.7684126984126984</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03858926484638451</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5177142857142857</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.07796725601797194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=5,
+                                        min_samples_leaf=2, min_samples_split=5,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'scaler': None, 'model__min_samples_split': 5, 'model__min_samples_leaf': 2, 'model__max_features': None, 'model__max_depth': 5, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 1 1 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>10</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.7945873015873017</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03163497024214899</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5224761904761904</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0813350841402581</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.579946921276204</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.579946921276204</v>
-      </c>
-      <c r="K2">
-        <v>0.1185102497965201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.5312293439249961</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0.7692307692307692</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.5312293439249961</v>
-      </c>
-      <c r="K3">
-        <v>0.1032040780297864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0.622977022977023</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', 'passthrough'),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced',
+                                        criterion='entropy', max_depth=10,
+                                        max_features='log2', min_samples_leaf=7,
+                                        min_samples_split=5,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'scaler': RobustScaler(), 'model__min_samples_split': 5, 'model__min_samples_leaf': 7, 'model__max_features': 'log2', 'model__max_depth': 10, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 0 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>42</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.6217204092204092</v>
-      </c>
-      <c r="K4">
-        <v>0.05290264388541155</v>
+      <c r="H4" t="n">
+        <v>0.7650952380952381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02820188135018033</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4904126984126985</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08150833613290584</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/DecisionTreeClassifier.xlsx
+++ b/results/DecisionTreeClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,145 +493,245 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=1,
+                                        min_samples_leaf=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__min_samples_split': 2, 'model__min_samples_leaf': 5, 'model__max_features': None, 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 0 1 0 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7775428571428572</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02966702134589264</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5116190476190476</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.08681132582019899</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced',
+                                        criterion='entropy', max_depth=3,
+                                        max_features='log2',
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5904761904761905</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__min_samples_split': 2, 'model__min_samples_leaf': 1, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 0 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7762106537530267</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03074252530652464</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4987086359967717</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.08070979069907498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
                 ('model',
                  DecisionTreeClassifier(class_weight='balanced',
                                         criterion='entropy', max_depth=10,
-                                        max_features='log2', min_samples_leaf=9,
+                                        min_samples_leaf=5, min_samples_split=5,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.5904761904761905</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'scaler': RobustScaler(), 'model__min_samples_split': 2, 'model__min_samples_leaf': 9, 'model__max_features': 'log2', 'model__max_depth': 10, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7684126984126984</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03858926484638451</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5177142857142857</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.07796725601797194</v>
+      <c r="B4" t="n">
+        <v>0.5904761904761904</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__min_samples_split': 5, 'model__min_samples_leaf': 5, 'model__max_features': None, 'model__max_depth': 10, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 1 0 0 0 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7777517564402811</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0328583136139833</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08314903700646621</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=5,
-                                        min_samples_leaf=2, min_samples_split=5,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__min_samples_split': 5, 'model__min_samples_leaf': 2, 'model__max_features': None, 'model__max_depth': 5, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7945873015873017</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03163497024214899</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5224761904761904</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0813350841402581</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', 'passthrough'),
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
                  DecisionTreeClassifier(class_weight='balanced',
-                                        criterion='entropy', max_depth=10,
-                                        max_features='log2', min_samples_leaf=7,
-                                        min_samples_split=5,
+                                        criterion='entropy', max_depth=15,
+                                        max_features='sqrt', min_samples_leaf=9,
+                                        min_samples_split=9,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'scaler': RobustScaler(), 'model__min_samples_split': 5, 'model__min_samples_leaf': 7, 'model__max_features': 'log2', 'model__max_depth': 10, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7650952380952381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02820188135018033</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4904126984126985</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.08150833613290584</v>
+      <c r="B5" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__min_samples_split': 9, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__max_depth': 15, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 0 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7596221959858322</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03289739517642348</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.512396694214876</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07365827583245997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=15,
+                                        max_features='log2', min_samples_leaf=9,
+                                        min_samples_split=7,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__min_samples_split': 7, 'model__min_samples_leaf': 9, 'model__max_features': 'log2', 'model__max_depth': 15, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7644613583138172</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03803203021572739</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5025761124121779</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08522071919017508</v>
       </c>
     </row>
   </sheetData>

--- a/results/DecisionTreeClassifier.xlsx
+++ b/results/DecisionTreeClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,73 +493,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 DecisionTreeClassifier(max_depth=1, max_features='sqrt',
+                                        min_samples_leaf=5, min_samples_split=9,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7058823529411764</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__min_samples_split': 9, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.765713893842156</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04654277135637476</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4615137347619701</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.175763756015418</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=1,
+                 DecisionTreeClassifier(max_depth=1, max_features='log2',
                                         min_samples_leaf=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__min_samples_split': 2, 'model__min_samples_leaf': 5, 'model__max_features': None, 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 0 1 0 1 0 0 0]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7775428571428572</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02966702134589264</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5116190476190476</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.08681132582019899</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        criterion='entropy', max_depth=3,
-                                        max_features='log2',
-                                        random_state=42))])</t>
-        </is>
-      </c>
       <c r="B3" t="n">
-        <v>0.5904761904761905</v>
+        <v>0.6943820884997355</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__min_samples_split': 2, 'model__min_samples_leaf': 1, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__min_samples_split': 2, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -568,170 +567,118 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 0 1 0 1 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7762106537530267</v>
+        <v>0.8050692868164849</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03074252530652464</v>
+        <v>0.04308624872648558</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4987086359967717</v>
+        <v>0.5542167678073561</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08070979069907498</v>
+        <v>0.1381257009173021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        criterion='entropy', max_depth=10,
-                                        min_samples_leaf=5, min_samples_split=5,
+                 DecisionTreeClassifier(max_depth=1, max_features='log2',
+                                        min_samples_split=9,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5904761904761904</v>
+        <v>0.6857843137254902</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__min_samples_split': 5, 'model__min_samples_leaf': 5, 'model__max_features': None, 'model__max_depth': 10, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': None, 'model__min_samples_split': 9, 'model__min_samples_leaf': 1, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 0 0 0 0 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7777517564402811</v>
+        <v>0.784838376856368</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0328583136139833</v>
+        <v>0.05100801340398137</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.5503934370857899</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08314903700646621</v>
+        <v>0.1581650405750016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        criterion='entropy', max_depth=15,
-                                        max_features='sqrt', min_samples_leaf=9,
-                                        min_samples_split=9,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__min_samples_split': 9, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__max_depth': 15, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 0 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7596221959858322</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.03289739517642348</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.512396694214876</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.07365827583245997</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=15,
-                                        max_features='log2', min_samples_leaf=9,
+                 DecisionTreeClassifier(criterion='entropy', max_depth=1,
+                                        max_features='sqrt', min_samples_leaf=2,
                                         min_samples_split=7,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__min_samples_split': 7, 'model__min_samples_leaf': 9, 'model__max_features': 'log2', 'model__max_depth': 15, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7644613583138172</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.03803203021572739</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5025761124121779</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.08522071919017508</v>
+      <c r="B5" t="n">
+        <v>0.7571428571428571</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7875008122706374</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05235764122802646</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5466932533479592</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1717158515895725</v>
       </c>
     </row>
   </sheetData>

--- a/results/DecisionTreeClassifier.xlsx
+++ b/results/DecisionTreeClassifier.xlsx
@@ -493,23 +493,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(max_depth=1, max_features='sqrt',
-                                        min_samples_leaf=5, min_samples_split=9,
+                 DecisionTreeClassifier(criterion='entropy', max_depth=3,
+                                        max_features='log2', min_samples_leaf=7,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.5797707847707847</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__min_samples_split': 9, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': None, 'model__min_samples_split': 2, 'model__min_samples_leaf': 7, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -518,47 +519,45 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 0 1 1 1 0 0 1 1 0 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.765713893842156</v>
+        <v>0.7091834439064867</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04654277135637476</v>
+        <v>0.07287697164667545</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4615137347619701</v>
+        <v>0.4420190236560825</v>
       </c>
       <c r="K2" t="n">
-        <v>0.175763756015418</v>
+        <v>0.1906240073651328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(max_depth=1, max_features='log2',
-                                        min_samples_leaf=5, random_state=42))])</t>
+                 DecisionTreeClassifier(max_depth=15, max_features='sqrt',
+                                        min_samples_leaf=7, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6943820884997355</v>
+        <v>0.629004329004329</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__min_samples_split': 2, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': StandardScaler(), 'model__min_samples_split': 2, 'model__min_samples_leaf': 7, 'model__max_features': 'sqrt', 'model__max_depth': 15, 'model__criterion': 'gini', 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -567,45 +566,46 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
+          <t>[1 1 0 1 0 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8050692868164849</v>
+        <v>0.7244091688843979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04308624872648558</v>
+        <v>0.07567102338396098</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5542167678073561</v>
+        <v>0.4929335764235764</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1381257009173021</v>
+        <v>0.1693703742483909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(max_depth=1, max_features='log2',
+                 DecisionTreeClassifier(criterion='entropy', max_depth=15,
                                         min_samples_split=9,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6857843137254902</v>
+        <v>0.6688649585708408</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__min_samples_split': 9, 'model__min_samples_leaf': 1, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': StandardScaler(), 'model__min_samples_split': 9, 'model__min_samples_leaf': 1, 'model__max_features': None, 'model__max_depth': 15, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -614,42 +614,42 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 0 0 0 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.784838376856368</v>
+        <v>0.7324972713608575</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05100801340398137</v>
+        <v>0.06845101424344902</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5503934370857899</v>
+        <v>0.5441441307058954</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1581650405750016</v>
+        <v>0.169992514747175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(criterion='entropy', max_depth=1,
-                                        max_features='sqrt', min_samples_leaf=2,
-                                        min_samples_split=7,
+                 DecisionTreeClassifier(criterion='entropy', max_depth=3,
+                                        min_samples_leaf=5, min_samples_split=7,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7571428571428571</v>
+        <v>0.6721736596736597</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 5, 'model__max_features': None, 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -669,16 +669,16 @@
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7875008122706374</v>
+        <v>0.705020563304451</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05235764122802646</v>
+        <v>0.0775382874843444</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5466932533479592</v>
+        <v>0.5465353309435661</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1717158515895725</v>
+        <v>0.1778547848629929</v>
       </c>
     </row>
   </sheetData>

--- a/results/DecisionTreeClassifier.xlsx
+++ b/results/DecisionTreeClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,186 +451,244 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=3,
+                                        max_features='log2', min_samples_leaf=2,
+                                        min_samples_split=9,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6783333333333335</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 9, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7148816323490469</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3830933555333556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8617438507601569</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4610274603174603</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6495904761904763</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3596800000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 DecisionTreeClassifier(max_depth=1, max_features='sqrt',
+                                        min_samples_leaf=5, min_samples_split=5,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7433333333333333</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 5, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7260552679242731</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4383413542013542</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8748091804392164</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5238884126984126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6596099999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4224000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 1 0 0 1 0 1 0 1 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
                  DecisionTreeClassifier(criterion='entropy', max_depth=3,
-                                        max_features='log2', min_samples_leaf=7,
+                                        max_features='log2',
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.5797707847707847</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': None, 'model__min_samples_split': 2, 'model__min_samples_leaf': 7, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 1 1 0 0 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7091834439064867</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07287697164667545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4420190236560825</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1906240073651328</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 DecisionTreeClassifier(max_depth=15, max_features='sqrt',
-                                        min_samples_leaf=7, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.629004329004329</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': StandardScaler(), 'model__min_samples_split': 2, 'model__min_samples_leaf': 7, 'model__max_features': 'sqrt', 'model__max_depth': 15, 'model__criterion': 'gini', 'model__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8750000000000001</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7244091688843979</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.07567102338396098</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4929335764235764</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1693703742483909</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 DecisionTreeClassifier(criterion='entropy', max_depth=15,
-                                        min_samples_split=9,
-                                        random_state=42))])</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.6688649585708408</v>
+        <v>0.7267857142857143</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': StandardScaler(), 'model__min_samples_split': 9, 'model__min_samples_leaf': 1, 'model__max_features': None, 'model__max_depth': 15, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': None, 'model__min_samples_split': 2, 'model__min_samples_leaf': 1, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 0 0 1 1 1 0 0]</t>
-        </is>
+        <v>0.7902005304858701</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4797922055722055</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6249999999999999</v>
       </c>
       <c r="G4" t="n">
+        <v>0.8662122520902015</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5157168253968254</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7614736842105262</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.48448</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7324972713608575</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.06845101424344902</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5441441307058954</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.169992514747175</v>
       </c>
     </row>
     <row r="5">
@@ -639,46 +697,119 @@
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(criterion='entropy', max_depth=3,
-                                        min_samples_leaf=5, min_samples_split=7,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=5,
+                                        max_features='log2', min_samples_leaf=2,
+                                        min_samples_split=9,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6721736596736597</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 5, 'model__max_features': None, 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 9, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 5, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.722172388830679</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4139324142524142</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6190476190476191</v>
       </c>
       <c r="G5" t="n">
+        <v>0.8552282451350464</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4930569841269841</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6582190476190476</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.39544</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.705020563304451</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0775382874843444</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5465353309435661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1778547848629929</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 DecisionTreeClassifier(criterion='entropy', max_depth=1,
+                                        min_samples_leaf=9, min_samples_split=7,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7216666666666667</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 9, 'model__max_features': None, 'model__max_depth': 1, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7476375898847871</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5480078832278832</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8850787518110366</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6235879365079365</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6648363636363637</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5319200000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/DecisionTreeClassifier.xlsx
+++ b/results/DecisionTreeClassifier.xlsx
@@ -513,178 +513,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 DecisionTreeClassifier(max_depth=10, min_samples_split=5,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6504778554778554</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__min_samples_split': 5, 'model__min_samples_leaf': 1, 'model__max_features': None, 'model__max_depth': 10, 'model__criterion': 'gini', 'model__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7110540026094299</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4522316394716394</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8634033027666478</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.539687619047619</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6444340425531915</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4296666666666666</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=3,
-                                        max_features='log2', min_samples_leaf=2,
-                                        min_samples_split=9,
+                 DecisionTreeClassifier(class_weight='balanced',
+                                        criterion='entropy', max_depth=15,
+                                        max_features='log2',
+                                        min_samples_split=7,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6783333333333335</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 9, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7148816323490469</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3830933555333556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4571428571428572</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8617438507601569</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.4610274603174603</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6495904761904763</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.3596800000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>42</v>
+      <c r="B3" t="n">
+        <v>0.5987012987012987</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 1, 'model__max_features': 'log2', 'model__max_depth': 15, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7044712316654341</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4406009879009879</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8777631029897763</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6179201587301587</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6313702127659574</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3791333333333333</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(max_depth=1, max_features='sqrt',
-                                        min_samples_leaf=5, min_samples_split=5,
+                 DecisionTreeClassifier(class_weight='balanced',
+                                        criterion='entropy', max_depth=3,
+                                        max_features='log2', min_samples_leaf=7,
+                                        min_samples_split=9,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.7433333333333333</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 5, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__criterion': 'gini', 'model__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7260552679242731</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4383413542013542</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8748091804392164</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5238884126984126</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6596099999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.4224000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0 0 0 1 1 0 0 1 0 1 0 1 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 DecisionTreeClassifier(criterion='entropy', max_depth=3,
-                                        max_features='log2',
-                                        random_state=42))])</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.7267857142857143</v>
+        <v>0.6486596736596737</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': None, 'model__min_samples_split': 2, 'model__min_samples_leaf': 1, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 9, 'model__min_samples_leaf': 7, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7902005304858701</v>
+        <v>0.7558565302625538</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4797922055722055</v>
+        <v>0.491752947052947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6249999999999999</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8662122520902015</v>
+        <v>0.8480025757893054</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5157168253968254</v>
+        <v>0.5230658730158729</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7614736842105262</v>
+        <v>0.7155466666666667</v>
       </c>
       <c r="K4" t="n">
-        <v>0.48448</v>
+        <v>0.5034399999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 1 1 1 1 1]</t>
+          <t>[0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -694,58 +696,58 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=5,
-                                        max_features='log2', min_samples_leaf=2,
-                                        min_samples_split=9,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=10,
+                                        max_features='sqrt', min_samples_leaf=9,
+                                        min_samples_split=7,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.5770695970695972</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 9, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 5, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': StandardScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__max_depth': 10, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.722172388830679</v>
+        <v>0.7125511372454366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4139324142524142</v>
+        <v>0.4530666156066156</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8552282451350464</v>
+        <v>0.8607701385465948</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4930569841269841</v>
+        <v>0.5649090476190477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.65</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6582190476190476</v>
+        <v>0.6429551020408163</v>
       </c>
       <c r="K5" t="n">
-        <v>0.39544</v>
+        <v>0.4134666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 0]</t>
+          <t>[0 1 1 1 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -764,7 +766,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7216666666666667</v>
+        <v>0.6257420357420357</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -772,40 +774,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7476375898847871</v>
+        <v>0.7479948781788192</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5480078832278832</v>
+        <v>0.5167622577422577</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8850787518110366</v>
+        <v>0.8744301934939428</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6235879365079365</v>
+        <v>0.6382023809523809</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6648363636363637</v>
+        <v>0.668823076923077</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5319200000000001</v>
+        <v>0.4762666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.55</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0]</t>
+          <t>[1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/DecisionTreeClassifier.xlsx
+++ b/results/DecisionTreeClassifier.xlsx
@@ -513,47 +513,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 DecisionTreeClassifier(max_depth=10, min_samples_split=5,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
+                                        max_features='sqrt',
+                                        min_samples_leaf=11,
+                                        min_samples_split=13,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6504778554778554</v>
+        <v>0.5598018648018648</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__min_samples_split': 5, 'model__min_samples_leaf': 1, 'model__max_features': None, 'model__max_depth': 10, 'model__criterion': 'gini', 'model__class_weight': None}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7110540026094299</v>
+        <v>0.7231437256025264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4522316394716394</v>
+        <v>0.5598018648018648</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8634033027666478</v>
+        <v>0.8092236053389532</v>
       </c>
       <c r="H2" t="n">
-        <v>0.539687619047619</v>
+        <v>0.6703174603174603</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6444340425531915</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4296666666666666</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4375</v>
+        <v>0.8125</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -562,7 +564,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0]</t>
+          <t>[1 1 1 1 1 1 0 1 1 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -572,50 +574,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        criterion='entropy', max_depth=15,
-                                        max_features='log2',
-                                        min_samples_split=7,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
+                                        max_features='sqrt',
+                                        min_samples_leaf=11,
+                                        min_samples_split=13,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5987012987012987</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 1, 'model__max_features': 'log2', 'model__max_depth': 15, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7044712316654341</v>
+        <v>0.7526013652625287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4406009879009879</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8777631029897763</v>
+        <v>0.7822783852303303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6179201587301587</v>
+        <v>0.7138888888888889</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6313702127659574</v>
+        <v>0.7276595744680852</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3791333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4375</v>
+        <v>0.6875</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -624,7 +625,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 1]</t>
+          <t>[0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 0 0 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -634,50 +635,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced',
-                                        criterion='entropy', max_depth=3,
-                                        max_features='log2', min_samples_leaf=7,
-                                        min_samples_split=9,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
+                                        max_features='sqrt',
+                                        min_samples_leaf=11,
+                                        min_samples_split=13,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6486596736596737</v>
+        <v>0.4892057942057942</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': RobustScaler(), 'model__min_samples_split': 9, 'model__min_samples_leaf': 7, 'model__max_features': 'log2', 'model__max_depth': 3, 'model__criterion': 'entropy', 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7558565302625538</v>
+        <v>0.7632968482206695</v>
       </c>
       <c r="E4" t="n">
-        <v>0.491752947052947</v>
+        <v>0.4892057942057942</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8480025757893054</v>
+        <v>0.7643994031906569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5230658730158729</v>
+        <v>0.5205952380952381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7155466666666667</v>
+        <v>0.7755555555555556</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5034399999999999</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1]</t>
+          <t>[1 1 1 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -696,49 +696,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=10,
-                                        max_features='sqrt', min_samples_leaf=9,
-                                        min_samples_split=7,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
+                                        max_features='sqrt',
+                                        min_samples_leaf=11,
+                                        min_samples_split=13,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5770695970695972</v>
+        <v>0.5007209457209457</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': StandardScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__max_depth': 10, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7125511372454366</v>
+        <v>0.7321640629636167</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4530666156066156</v>
+        <v>0.5007209457209457</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8607701385465948</v>
+        <v>0.8036962325474752</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5649090476190477</v>
+        <v>0.5795238095238096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6429551020408163</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4134666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 1 1]</t>
+          <t>[0 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1 0 1 1 0 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -757,48 +757,49 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector', RandomUnderSampler(random_state=42)),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 DecisionTreeClassifier(criterion='entropy', max_depth=1,
-                                        min_samples_leaf=9, min_samples_split=7,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
+                                        max_features='sqrt',
+                                        min_samples_leaf=11,
+                                        min_samples_split=13,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6257420357420357</v>
+        <v>0.552121212121212</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': MinMaxScaler(), 'model__min_samples_split': 7, 'model__min_samples_leaf': 9, 'model__max_features': None, 'model__max_depth': 1, 'model__criterion': 'entropy', 'model__class_weight': None}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7479948781788192</v>
+        <v>0.7727446463776266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5167622577422577</v>
+        <v>0.552121212121212</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8744301934939428</v>
+        <v>0.8477183787689755</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6382023809523809</v>
+        <v>0.6248809523809524</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="J6" t="n">
-        <v>0.668823076923077</v>
+        <v>0.7134615384615384</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4762666666666667</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -807,7 +808,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1]</t>
+          <t>[1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
